--- a/mAuditoriaPV/formatos/Libro1.xlsx
+++ b/mAuditoriaPV/formatos/Libro1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Acosta\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{914F7252-AB6A-417D-A535-78F321A8D5B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B645F873-CB0A-45A9-BB4D-9AFD07AE7448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91541935-9483-4BDF-8ABD-7019137DC384}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7CAE7774-4484-4251-A6DB-241253A689CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,12 +36,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>7501318608900</t>
-  </si>
-  <si>
-    <t>codigo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>7503008151031</t>
+  </si>
+  <si>
+    <t>75009090</t>
+  </si>
+  <si>
+    <t>7501013109559</t>
+  </si>
+  <si>
+    <t>7501055335985</t>
+  </si>
+  <si>
+    <t>608875005382</t>
+  </si>
+  <si>
+    <t>7501204000399</t>
+  </si>
+  <si>
+    <t>7501018314323</t>
+  </si>
+  <si>
+    <t>7506306314245</t>
+  </si>
+  <si>
+    <t>7506192508384</t>
+  </si>
+  <si>
+    <t>7613287218162</t>
+  </si>
+  <si>
+    <t>7509546067506</t>
+  </si>
+  <si>
+    <t>7891024027028</t>
+  </si>
+  <si>
+    <t>7509546054032</t>
+  </si>
+  <si>
+    <t>7501199417868</t>
+  </si>
+  <si>
+    <t>7509552911688</t>
+  </si>
+  <si>
+    <t>7501046111093</t>
+  </si>
+  <si>
+    <t>037836021145</t>
+  </si>
+  <si>
+    <t>3614225108709</t>
+  </si>
+  <si>
+    <t>7501850519641</t>
+  </si>
+  <si>
+    <t>7501850520838</t>
+  </si>
+  <si>
+    <t>7501028832060</t>
   </si>
 </sst>
 </file>
@@ -390,23 +453,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B406930-71A8-4DD4-A42E-A917C919B2D6}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4602B4BC-9FEB-4DCA-BBA0-AF2ED3479856}">
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
